--- a/data/trans_dic/P31_4_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P31_4_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza un entrenamiento físico deportivo &lt;= 2 días a la semana respecto a las últimas 2 semanas</t>
+          <t>Población que realiza un entrenamiento físico deportivo &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,05%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>93,77%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>92,24%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>86,79%</t>
+          <t>87,8%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>92,09%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>98,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>96,19%</t>
+          <t>97,5%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>95,68%</t>
+          <t>95,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>94,98%</t>
+          <t>95,47%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>91,7%</t>
+          <t>96,09%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>95,28%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>91,86%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>93,81%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,16; 95,9</t>
+          <t>89,37; 96,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>88,31; 95,33</t>
+          <t>87,13; 96,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>81,26; 90,85</t>
+          <t>80,74; 92,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>93,46; 99,11</t>
+          <t>86,39; 96,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,75; 98,95</t>
+          <t>95,28; 99,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,28; 97,89</t>
+          <t>93,61; 99,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,56; 97,19</t>
+          <t>92,29; 98,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>92,26; 96,54</t>
+          <t>89,04; 98,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>88,62; 94,15</t>
+          <t>93,55; 97,72</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>92,63; 97,31</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>88,22; 94,54</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>89,79; 96,51</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>88,35%</t>
+          <t>91,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>91,02%</t>
+          <t>87,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>89,04%</t>
+          <t>90,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>98,82%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>99,02%</t>
+          <t>98,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>91,95%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>94,98%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>94,05%</t>
+          <t>93,62%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>93,28%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>94,57%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>92,43%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>82,66; 92,69</t>
+          <t>86,21; 95,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,45; 94,74</t>
+          <t>75,44; 93,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>83,33; 93,54</t>
+          <t>82,6; 95,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>92,16; 97,22</t>
+          <t>77,36; 92,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,68; 100,0</t>
+          <t>90,81; 98,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>96,38; 100,0</t>
+          <t>94,14; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>89,11; 94,45</t>
+          <t>94,53; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>91,06; 96,85</t>
+          <t>94,5; 99,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>90,86; 96,35</t>
+          <t>90,06; 96,15</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>87,8; 96,6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>90,06; 97,25</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>87,18; 95,74</t>
         </is>
       </c>
     </row>
@@ -852,22 +937,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>91,72%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>95,73%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>98,35%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -882,17 +967,32 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,9%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>97,75%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>97,97%</t>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>98,41%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>95,64%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,04; 98,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,87; 100,0</t>
+          <t>83,54; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>86,86; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>91,76; 100,0</t>
+          <t>64,2; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>96,91; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>97,05; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>88,3; 98,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>91,8; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>93,77; 100,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>91,67; 100,0</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>84,57; 100,0</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>91,19%</t>
+          <t>93,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>88,85%</t>
+          <t>90,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>97,71%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>97,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>95,29%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>95,49%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>94,78%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>93,82%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>93,46%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,11; 93,22</t>
+          <t>90,46; 95,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,71; 94,32</t>
+          <t>86,16; 94,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,32; 92,01</t>
+          <t>85,01; 93,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>94,68; 97,92</t>
+          <t>85,22; 93,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,76; 99,12</t>
+          <t>94,66; 98,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,09; 98,69</t>
+          <t>96,19; 99,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,44; 95,42</t>
+          <t>94,97; 98,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>93,68; 96,49</t>
+          <t>93,1; 98,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,47; 94,89</t>
+          <t>93,8; 96,78</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>92,46; 96,5</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>91,54; 95,59</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>90,48; 95,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza un entrenamiento físico deportivo &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,05%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>342.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>331.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>331.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>399962</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>337456</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>334347</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>457556</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>496608</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>386099</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>386045</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>493087</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>896570</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>723555</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>720391</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>950642</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>381216; 412697</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>316633; 349529</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>307479; 353447</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>429265; 479027</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>482590; 504113</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>370692; 393394</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>372305; 396636</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>459894; 507837</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>872854; 911767</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>703464; 739013</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>691812; 741432</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>909839; 978006</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>329303</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>272278</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>292094</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>349030</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>402826</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>320649</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>327995</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>405660</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>732129</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>592925</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>620089</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>754690</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>309832; 343646</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>233824; 290213</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>266489; 307828</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>311130; 370540</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>383807; 414554</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>306586; 325671</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>314865; 333069</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>391515; 411827</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>704295; 751906</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>558069; 614011</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>590510; 637674</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>711819; 781667</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>99052</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>77086</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>85591</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>109576</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>101166</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>79127</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>82553</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>105676</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>200218</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>156213</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>168144</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>215252</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>66497; 79603</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>76657; 119398</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>145513; 158730</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>190351; 225074</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>386.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>373.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>386.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>673.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>656.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>669.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>644.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>828317</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>686819</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>712032</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>916162</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1000601</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>785873</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>796592</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1004423</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1828917</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1472693</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1508625</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1920584</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>800572; 848359</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>648760; 710722</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>670718; 736869</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>867971; 949764</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>975310; 1013651</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>770272; 795115</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>777864; 808220</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>964927; 1020634</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1796633; 1853618</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1436585; 1499457</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1472068; 1537143</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1859207; 1962752</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
